--- a/data/pca/factorExposure/factorExposure_2013-01-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006253820168492792</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001813025989161632</v>
+      </c>
+      <c r="C2">
+        <v>-0.03155064271386153</v>
+      </c>
+      <c r="D2">
+        <v>0.00594033203617904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0004711969548933006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006418010482495967</v>
+      </c>
+      <c r="C4">
+        <v>-0.08452222129653689</v>
+      </c>
+      <c r="D4">
+        <v>0.07949957564775077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001314835751405821</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01440824746210134</v>
+      </c>
+      <c r="C6">
+        <v>-0.1142910701781178</v>
+      </c>
+      <c r="D6">
+        <v>0.03250558511538162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001752958177163863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005115479941765784</v>
+      </c>
+      <c r="C7">
+        <v>-0.05776461997416761</v>
+      </c>
+      <c r="D7">
+        <v>0.03141822906340667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006829835904387819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005907793413679415</v>
+      </c>
+      <c r="C8">
+        <v>-0.03856688047339066</v>
+      </c>
+      <c r="D8">
+        <v>0.04091091244536679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003296410045294439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004567158352980107</v>
+      </c>
+      <c r="C9">
+        <v>-0.07054432403136247</v>
+      </c>
+      <c r="D9">
+        <v>0.07218097618865908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00247201517903824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005430498929356258</v>
+      </c>
+      <c r="C10">
+        <v>-0.05854828880781872</v>
+      </c>
+      <c r="D10">
+        <v>-0.1970296829423157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002489928550166072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005816812056999282</v>
+      </c>
+      <c r="C11">
+        <v>-0.07951634391442008</v>
+      </c>
+      <c r="D11">
+        <v>0.0603476918586338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005170469714430718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004177106285623454</v>
+      </c>
+      <c r="C12">
+        <v>-0.06405440230635502</v>
+      </c>
+      <c r="D12">
+        <v>0.04699707588398614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002305319741779807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009020076911252325</v>
+      </c>
+      <c r="C13">
+        <v>-0.0681224628554247</v>
+      </c>
+      <c r="D13">
+        <v>0.05769754562041725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0007817159999234871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001683103818331589</v>
+      </c>
+      <c r="C14">
+        <v>-0.04568933700702714</v>
+      </c>
+      <c r="D14">
+        <v>0.009055504552673486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006172865493743738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006071795130848498</v>
+      </c>
+      <c r="C15">
+        <v>-0.04168129221587893</v>
+      </c>
+      <c r="D15">
+        <v>0.02871679183741734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007616565905435574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005150874782787298</v>
+      </c>
+      <c r="C16">
+        <v>-0.06501983647424478</v>
+      </c>
+      <c r="D16">
+        <v>0.04821181335955231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.000177688141242355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009064070890156786</v>
+      </c>
+      <c r="C20">
+        <v>-0.06550141256158876</v>
+      </c>
+      <c r="D20">
+        <v>0.04181962534160152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00591707624373604</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01007563856425539</v>
+      </c>
+      <c r="C21">
+        <v>-0.02156924403770416</v>
+      </c>
+      <c r="D21">
+        <v>0.03622065878356058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01654475737793398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006599072744937171</v>
+      </c>
+      <c r="C22">
+        <v>-0.09359619580000936</v>
+      </c>
+      <c r="D22">
+        <v>0.1136294124074632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01684535235794182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006415304559482064</v>
+      </c>
+      <c r="C23">
+        <v>-0.09440494075595222</v>
+      </c>
+      <c r="D23">
+        <v>0.1136719451369989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001289705706012263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005590148933509572</v>
+      </c>
+      <c r="C24">
+        <v>-0.07632320710627365</v>
+      </c>
+      <c r="D24">
+        <v>0.06180254801646448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003843795412265061</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003152393151256436</v>
+      </c>
+      <c r="C25">
+        <v>-0.07852691902255329</v>
+      </c>
+      <c r="D25">
+        <v>0.06688993834371475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004620271675244618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003685777989347894</v>
+      </c>
+      <c r="C26">
+        <v>-0.04095663728703657</v>
+      </c>
+      <c r="D26">
+        <v>0.02141085468266108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004893204672744103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000712666358058079</v>
+      </c>
+      <c r="C28">
+        <v>-0.1079672437490796</v>
+      </c>
+      <c r="D28">
+        <v>-0.3176544347650551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001120312334121402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003373988928062155</v>
+      </c>
+      <c r="C29">
+        <v>-0.05049110450167577</v>
+      </c>
+      <c r="D29">
+        <v>0.006299803020463172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003273551807522125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.00973887318200267</v>
+      </c>
+      <c r="C30">
+        <v>-0.1428867602437408</v>
+      </c>
+      <c r="D30">
+        <v>0.09577818259343862</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001123124891956423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006341818028775141</v>
+      </c>
+      <c r="C31">
+        <v>-0.0446769525268112</v>
+      </c>
+      <c r="D31">
+        <v>0.03089071546712962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003114574099859925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004226170887389468</v>
+      </c>
+      <c r="C32">
+        <v>-0.04000947396467604</v>
+      </c>
+      <c r="D32">
+        <v>0.02131809679307888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002738583047988435</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008586793975913448</v>
+      </c>
+      <c r="C33">
+        <v>-0.08618171918568926</v>
+      </c>
+      <c r="D33">
+        <v>0.06589882960699794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004344967088409806</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004057185771033142</v>
+      </c>
+      <c r="C34">
+        <v>-0.05798545209993502</v>
+      </c>
+      <c r="D34">
+        <v>0.05296256559351302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001416246144449149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005074285236716768</v>
+      </c>
+      <c r="C35">
+        <v>-0.04051729787189413</v>
+      </c>
+      <c r="D35">
+        <v>0.01604552130172135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003705477977841365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001050026257008384</v>
+      </c>
+      <c r="C36">
+        <v>-0.0248255417952368</v>
+      </c>
+      <c r="D36">
+        <v>0.02151034735858832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002327180852497176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009590118364392544</v>
+      </c>
+      <c r="C38">
+        <v>-0.03549033717166088</v>
+      </c>
+      <c r="D38">
+        <v>0.0150913422763889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01167706602418594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003742501703330768</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156717113054507</v>
+      </c>
+      <c r="D39">
+        <v>0.07311744323373762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009600500682816307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002850523003618381</v>
+      </c>
+      <c r="C40">
+        <v>-0.09103308940432293</v>
+      </c>
+      <c r="D40">
+        <v>0.008820235533430186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-3.418656285167487e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.00730732217149054</v>
+      </c>
+      <c r="C41">
+        <v>-0.03803176746295907</v>
+      </c>
+      <c r="D41">
+        <v>0.03616851341752518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002824578787594969</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004150948203428922</v>
+      </c>
+      <c r="C43">
+        <v>-0.05367389227998832</v>
+      </c>
+      <c r="D43">
+        <v>0.02412245740011815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00422617295681872</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003540221394588308</v>
+      </c>
+      <c r="C44">
+        <v>-0.109273954801954</v>
+      </c>
+      <c r="D44">
+        <v>0.06798081371459073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001074150173494003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002298342562273472</v>
+      </c>
+      <c r="C46">
+        <v>-0.03344688911394681</v>
+      </c>
+      <c r="D46">
+        <v>0.03253144657277632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0006795326054379743</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002801337418849911</v>
+      </c>
+      <c r="C47">
+        <v>-0.03771803628273421</v>
+      </c>
+      <c r="D47">
+        <v>0.02177168662648219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00375159821396013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006706470047760652</v>
+      </c>
+      <c r="C48">
+        <v>-0.03068538196652388</v>
+      </c>
+      <c r="D48">
+        <v>0.03194386595579769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01178877671193627</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01566620920866348</v>
+      </c>
+      <c r="C49">
+        <v>-0.1846599051164701</v>
+      </c>
+      <c r="D49">
+        <v>0.01275719171464394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001833547607406846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00371890715456066</v>
+      </c>
+      <c r="C50">
+        <v>-0.04346879046941658</v>
+      </c>
+      <c r="D50">
+        <v>0.03613800950202931</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009512990343402943</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004492020190073387</v>
+      </c>
+      <c r="C51">
+        <v>-0.02612868684071436</v>
+      </c>
+      <c r="D51">
+        <v>0.01984394566530744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008229852718612939</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02122077483084072</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697137579795351</v>
+      </c>
+      <c r="D53">
+        <v>0.02654733289818063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001199653507130155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008857190853091312</v>
+      </c>
+      <c r="C54">
+        <v>-0.05433772948735713</v>
+      </c>
+      <c r="D54">
+        <v>0.04397257950766003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003545114958319757</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009713581221548877</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082488285707755</v>
+      </c>
+      <c r="D55">
+        <v>0.0394037919607578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002850484880930382</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02037400156140666</v>
+      </c>
+      <c r="C56">
+        <v>-0.1735796534693937</v>
+      </c>
+      <c r="D56">
+        <v>0.0257316814778256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006936167819476197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01987178062253585</v>
+      </c>
+      <c r="C58">
+        <v>-0.1120635083816622</v>
+      </c>
+      <c r="D58">
+        <v>0.04827454306156494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006515032496415208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01008522523745429</v>
+      </c>
+      <c r="C59">
+        <v>-0.1650209284747542</v>
+      </c>
+      <c r="D59">
+        <v>-0.3209961319051458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003614998497900567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02444514593825482</v>
+      </c>
+      <c r="C60">
+        <v>-0.2223544172067699</v>
+      </c>
+      <c r="D60">
+        <v>0.03509214474577978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01357539133986878</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001567450208307238</v>
+      </c>
+      <c r="C61">
+        <v>-0.09508318470467342</v>
+      </c>
+      <c r="D61">
+        <v>0.05591459353274684</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1634926363716731</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1450362080310927</v>
+      </c>
+      <c r="C62">
+        <v>-0.09164247548351309</v>
+      </c>
+      <c r="D62">
+        <v>0.0440314099015617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0005502907441505314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00638064255678013</v>
+      </c>
+      <c r="C63">
+        <v>-0.05476471916467292</v>
+      </c>
+      <c r="D63">
+        <v>0.02709686395548271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0007806879340562683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01546775432696896</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045198680357079</v>
+      </c>
+      <c r="D64">
+        <v>0.05971401217476593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002701148596927714</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01828040864092401</v>
+      </c>
+      <c r="C65">
+        <v>-0.1247751522920195</v>
+      </c>
+      <c r="D65">
+        <v>0.01908707770961574</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007666140025525637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0133463603892262</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596679237420468</v>
+      </c>
+      <c r="D66">
+        <v>0.1134939120752274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003568315578804261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01579326068426968</v>
+      </c>
+      <c r="C67">
+        <v>-0.06603231905385991</v>
+      </c>
+      <c r="D67">
+        <v>0.02718932631365279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006028502433049267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008223391927701455</v>
+      </c>
+      <c r="C68">
+        <v>-0.08759485253568006</v>
+      </c>
+      <c r="D68">
+        <v>-0.259246180669387</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002288930894445045</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006308861360159212</v>
+      </c>
+      <c r="C69">
+        <v>-0.05052482401500788</v>
+      </c>
+      <c r="D69">
+        <v>0.03966923956702571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0001244320857170738</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00186044104299131</v>
+      </c>
+      <c r="C70">
+        <v>-0.002765451188613711</v>
+      </c>
+      <c r="D70">
+        <v>0.002781396625954141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0001115274780663356</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005970089850855955</v>
+      </c>
+      <c r="C71">
+        <v>-0.0959643191829409</v>
+      </c>
+      <c r="D71">
+        <v>-0.3061641487947495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00365646998161653</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01644185084766291</v>
+      </c>
+      <c r="C72">
+        <v>-0.1533251996100788</v>
+      </c>
+      <c r="D72">
+        <v>0.02092512541240521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01170600585657999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03135973451519983</v>
+      </c>
+      <c r="C73">
+        <v>-0.2803888817644519</v>
+      </c>
+      <c r="D73">
+        <v>0.05525828409052251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004569046460385187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002177516355403806</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048140365033528</v>
+      </c>
+      <c r="D74">
+        <v>0.03582816387621173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002651027232579903</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01120002461772775</v>
+      </c>
+      <c r="C75">
+        <v>-0.1248793126047267</v>
+      </c>
+      <c r="D75">
+        <v>0.02342756351369671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008872206562971564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02208983266758225</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489323829460677</v>
+      </c>
+      <c r="D76">
+        <v>0.05964408541431733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001813463322201867</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02369416461258805</v>
+      </c>
+      <c r="C77">
+        <v>-0.1227466454987432</v>
+      </c>
+      <c r="D77">
+        <v>0.08748963604743662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003789982839004944</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01493610528402564</v>
+      </c>
+      <c r="C78">
+        <v>-0.09594152243527464</v>
+      </c>
+      <c r="D78">
+        <v>0.07138934393867212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02349751437109814</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03799677758839255</v>
+      </c>
+      <c r="C79">
+        <v>-0.1568144999905495</v>
+      </c>
+      <c r="D79">
+        <v>0.03341762985368887</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006830566699883346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01047562252152532</v>
+      </c>
+      <c r="C80">
+        <v>-0.0402408213488353</v>
+      </c>
+      <c r="D80">
+        <v>0.02849645524908311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006953116953271101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01554571556994182</v>
+      </c>
+      <c r="C81">
+        <v>-0.1270656878315893</v>
+      </c>
+      <c r="D81">
+        <v>0.03832160082885813</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005797278911877127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02006628511490604</v>
+      </c>
+      <c r="C82">
+        <v>-0.1407688642384084</v>
+      </c>
+      <c r="D82">
+        <v>0.0377960572291358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009273777569123438</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01010233892322153</v>
+      </c>
+      <c r="C83">
+        <v>-0.05604972115502207</v>
+      </c>
+      <c r="D83">
+        <v>0.05454489882891939</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01315752214337211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169019734505277</v>
+      </c>
+      <c r="C84">
+        <v>-0.03675914946365709</v>
+      </c>
+      <c r="D84">
+        <v>-0.00812420136776365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01395508050107087</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02840738730540546</v>
+      </c>
+      <c r="C85">
+        <v>-0.1233550018433639</v>
+      </c>
+      <c r="D85">
+        <v>0.04438822946762933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001417154409238895</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006086355261110676</v>
+      </c>
+      <c r="C86">
+        <v>-0.05159416201583616</v>
+      </c>
+      <c r="D86">
+        <v>0.02789723463556256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004205911906550071</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01039585372891671</v>
+      </c>
+      <c r="C87">
+        <v>-0.1296798842344752</v>
+      </c>
+      <c r="D87">
+        <v>0.07387931492887138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01155691751427677</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002836821564601814</v>
+      </c>
+      <c r="C88">
+        <v>-0.06498543614359924</v>
+      </c>
+      <c r="D88">
+        <v>0.01781075180963061</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01375773653991744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001089514758806797</v>
+      </c>
+      <c r="C89">
+        <v>-0.1473821139548318</v>
+      </c>
+      <c r="D89">
+        <v>-0.3403792558066399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0006348047371458332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007233839404066599</v>
+      </c>
+      <c r="C90">
+        <v>-0.121708135836683</v>
+      </c>
+      <c r="D90">
+        <v>-0.3191754003096947</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0007052210230474261</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01056848246319535</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003558027649166</v>
+      </c>
+      <c r="D91">
+        <v>0.02078597257766188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007512266619014481</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001195989580876807</v>
+      </c>
+      <c r="C92">
+        <v>-0.1355280399522067</v>
+      </c>
+      <c r="D92">
+        <v>-0.3265339234868005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001596522694491488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005127160981992922</v>
+      </c>
+      <c r="C93">
+        <v>-0.1056658412493539</v>
+      </c>
+      <c r="D93">
+        <v>-0.300611930024981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003479144114719798</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02272075979283356</v>
+      </c>
+      <c r="C94">
+        <v>-0.1459978298624527</v>
+      </c>
+      <c r="D94">
+        <v>0.05308646014564029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004451507239791618</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01662965739183022</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250686478225562</v>
+      </c>
+      <c r="D95">
+        <v>0.05563380305468188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001861148607495155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03648099411579427</v>
+      </c>
+      <c r="C97">
+        <v>-0.2119960302797466</v>
+      </c>
+      <c r="D97">
+        <v>-0.004456388095131283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002500992975001485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03697424462409627</v>
+      </c>
+      <c r="C98">
+        <v>-0.2477210802127524</v>
+      </c>
+      <c r="D98">
+        <v>0.05135777124307099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848276077921965</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9819733488260789</v>
+      </c>
+      <c r="C99">
+        <v>0.1181512399274163</v>
+      </c>
+      <c r="D99">
+        <v>-0.0273381474479103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001016973667014361</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.00341205323193891</v>
+      </c>
+      <c r="C101">
+        <v>-0.05067026767076547</v>
+      </c>
+      <c r="D101">
+        <v>0.006438774902231493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
